--- a/Data/Datas/J_技能/武学列表/jynew武学.xlsx
+++ b/Data/Datas/J_技能/武学列表/jynew武学.xlsx
@@ -2936,11 +2936,11 @@
   <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="J52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K84" sqref="K84"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
